--- a/configTools/Luban/ConfigRoot/Datas/attr_self_Fixed.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/attr_self_Fixed.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="attr_self" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="attr_self" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1065,8 +1065,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="attr_variable|战斗属性"/>
       <sheetName val="battle_item|战斗道具"/>

--- a/configTools/Luban/ConfigRoot/Datas/attr_self_Fixed.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/attr_self_Fixed.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="attr_self" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="attr_self" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1065,8 +1065,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="attr_variable|战斗属性"/>
       <sheetName val="battle_item|战斗道具"/>
